--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2026年\1月\国内改造报价单\quotation-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F517B-6067-4A4B-AC19-FD07E860B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A625E3-99B4-46A5-ADD7-1D7B5DEEFC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -874,16 +874,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -935,7 +933,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,7 +959,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,7 +985,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>75</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>16110</v>
       </c>
       <c r="F9">
         <v>250</v>
@@ -1117,7 +1115,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>75</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16110</v>
       </c>
       <c r="F19">
         <v>250</v>
@@ -1377,7 +1375,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1447,9 +1445,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1689,7 +1687,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2249,7 +2247,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2409,7 +2407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3129,7 +3127,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3369,7 +3367,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3449,7 +3447,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4809,7 +4807,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5129,7 +5127,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -5289,7 +5287,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -5609,7 +5607,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -5769,7 +5767,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5849,7 +5847,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -6249,7 +6247,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -6329,7 +6327,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -6489,7 +6487,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6809,7 +6807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -6969,7 +6967,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -7209,7 +7207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -7289,7 +7287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -7369,7 +7367,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -7449,7 +7447,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -7689,7 +7687,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -7769,7 +7767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -8009,7 +8007,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -8089,7 +8087,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>132</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>67</v>
       </c>
@@ -8649,7 +8647,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -8729,7 +8727,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -8889,7 +8887,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -8969,7 +8967,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -9049,7 +9047,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -9129,7 +9127,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -9209,7 +9207,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -9303,16 +9301,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -9323,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -9331,7 +9327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -9342,7 +9338,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -9353,7 +9349,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -9361,7 +9357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -9369,7 +9365,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -9380,7 +9376,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
